--- a/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,16</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>5,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,13</t>
+          <t>6,29</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-6,73</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>6,73</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,68%</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>83,75%</t>
+          <t>76,35%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>101,57%</t>
+          <t>26,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-7,28%</t>
+          <t>79,65%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>102,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>61,66%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>88,86%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>48,3%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 10,64</t>
+          <t>2,52; 10,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 5,28</t>
+          <t>-5,23; 4,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,98; 9,06</t>
+          <t>0,53; 9,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,0</t>
+          <t>3,29; 9,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,89; -3,51</t>
+          <t>1,91; 9,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,02; 156,47</t>
+          <t>3,51; 10,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 116,6</t>
+          <t>1,2; 7,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,78; 172,76</t>
+          <t>18,76; 153,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>39,13; 193,57</t>
+          <t>-44,38; 97,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -3,83</t>
+          <t>0,08; 169,82</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41,33; 192,57</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>15,8; 124,33</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>37,53; 161,04</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>11,3; 103,06</t>
         </is>
       </c>
     </row>
@@ -761,47 +833,67 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,03</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,39</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,89</t>
+          <t>10,96</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>94,02%</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>128,38%</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>149,04%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,04%</t>
+          <t>124,54%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,51%</t>
+          <t>147,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>87,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>125,76%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>135,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>70,77%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 11,02</t>
+          <t>3,27; 11,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 9,95</t>
+          <t>2,82; 10,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,96; 11,57</t>
+          <t>4,73; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,67; 10,09</t>
+          <t>1,97; 11,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,17; -3,01</t>
+          <t>6,34; 15,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 188,84</t>
+          <t>3,31; 15,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>35,44; 313,98</t>
+          <t>0,14; 11,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,4; 278,28</t>
+          <t>29,9; 190,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>8,0; 166,4</t>
+          <t>39,27; 304,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-15,97; -3,49</t>
+          <t>64,69; 277,08</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 180,76</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>52,34; 230,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>26,61; 362,08</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 208,56</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,36</t>
+          <t>4,22</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>1,63</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>125,81%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>64,83%</t>
+          <t>125,75%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>63,42%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>76,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>72,21%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>18,1%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 13,72</t>
+          <t>1,31; 14,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 6,39</t>
+          <t>-3,12; 8,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 10,27</t>
+          <t>-1,17; 10,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 10,09</t>
+          <t>-1,78; 10,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-6,65; 8,92</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 428,38</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-84,47; 431,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,27; 273,22</t>
+          <t>1,5; 473,16</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-16,45; 338,0</t>
+          <t>-53,29; 641,22</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-22,67; 266,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-25,63; 291,74</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-54,27; 167,03</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,55</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,26</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-7,22</t>
+          <t>7,35</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>88,05%</t>
+          <t>7,22</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>64,63%</t>
+          <t>4,65</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>103,71%</t>
+          <t>88,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>63,71%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,79%</t>
+          <t>102,19%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>92,31%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>80,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>98,56%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>53,2%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,45</t>
+          <t>4,16; 9,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 5,8</t>
+          <t>0,7; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,98</t>
+          <t>3,98; 8,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,57; 8,47</t>
+          <t>3,76; 8,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-10,0; -4,59</t>
+          <t>4,69; 10,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>41,95; 137,2</t>
+          <t>4,14; 9,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>8,81; 130,75</t>
+          <t>1,86; 7,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>47,73; 168,44</t>
+          <t>41,41; 144,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>39,13; 147,5</t>
+          <t>3,63; 124,19</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-10,58; -5,01</t>
+          <t>46,67; 166,69</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>44,45; 147,55</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>42,54; 128,51</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>46,41; 158,87</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 102,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_6_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>5,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,29</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,34</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>76,35%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>26,33%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>79,65%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>102,92%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>61,66%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>88,86%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>48,3%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.746809727591222</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.360415886983721</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.045600899344566</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>6.20030467365874</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.822978064281258</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>6.731782502999052</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>4.394051410410229</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7635220257823668</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.3921867598009152</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.8659978403908813</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.019481806967129</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.6045809186023143</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.8886011643201912</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.4918459891335966</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,52; 10,22</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-5,23; 4,66</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 9,03</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,29; 9,44</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>1,91; 9,67</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>3,51; 10,04</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>1,2; 7,63</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,76; 153,76</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-44,38; 97,8</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0,08; 169,82</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>41,33; 192,57</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>15,8; 124,33</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>37,53; 161,04</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>11,3; 103,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.51796450288442</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-2.967015603719879</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>1.665079641665488</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.20811568108512</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>1.808659501875515</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>3.510317800272357</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1.245071777833222</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1876334779981254</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.3240339163271541</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.1277563671379244</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.3979865493914649</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.1485297414584197</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.3753361693399445</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>0.1156853887245466</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>10.21744649172776</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.286170816687457</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.327445493673181</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.301072248500917</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>9.764815743605389</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>10.03718118205497</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.704105028842585</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>1.537610127264902</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.179236447019371</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.787879936591778</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.934062565055523</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.244380813762663</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>1.610392434072289</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>1.032846981617197</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>7,14</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>6,14</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,89</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>10,96</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,89</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>93,94%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>124,54%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>147,29%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>87,68%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>125,76%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>135,71%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>70,77%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>3,27; 11,01</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>2,82; 10,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>4,73; 10,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,97; 11,08</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>6,34; 15,72</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>3,31; 15,62</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,14; 11,96</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>29,9; 190,86</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>39,27; 304,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>64,69; 277,08</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>13,16; 180,76</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>52,34; 230,3</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>26,61; 362,08</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 208,56</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>7.138033716593946</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>5.826883888780417</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>7.818011807637956</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.599134662668495</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>11.17310447846186</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.886983390135034</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>5.48343549272145</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.9393627186358621</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.233543615273063</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.422269555848733</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.8291722163367276</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.278093613976205</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>1.357111684630953</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.6748466115603839</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>7,41</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>2,53</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,88</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>4,22</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,63</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>125,75%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>63,42%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>76,63%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>72,21%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>18,1%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>3.272957426037598</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>2.657653759104692</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>4.606541935746558</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>1.448212554153847</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>6.537901125936822</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>3.310600082519676</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.0263840784345214</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2990229443312721</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.4390749045417169</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.6072379612803194</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.09801902524676155</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.538057493238008</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.2661103209725677</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.02542428721903533</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,31; 14,28</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 8,17</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,17; 10,62</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 10,3</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 8,92</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>1,5; 473,16</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-53,29; 641,22</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-22,67; 266,72</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-25,63; 291,74</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-54,27; 167,03</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>11.01000924971108</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>9.291848211674401</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.92213962855303</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.64052169988553</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.89736458748339</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>15.61809983274614</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>11.67063569833912</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.908567895819263</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>3.169355640294786</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.63033124708655</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.743563399170587</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.301193581671054</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>3.620799868025552</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>2.061703550106247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>7,02</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,55</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>7,35</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>7,22</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>4,65</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>88,0%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>63,71%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>102,19%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>92,31%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>80,57%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>98,56%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>53,2%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.40856341440196</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.031719917483737</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.832091511292483</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>4.493492874228723</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.426355297462447</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>1.257460114639224</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.1913423917526699</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7373645547520208</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.7868533470302651</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>0.2837001619940733</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>4,16; 9,5</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,7; 5,86</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>3,98; 8,91</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>3,76; 8,4</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>4,69; 10,26</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>4,14; 9,84</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>1,86; 7,5</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>41,41; 144,21</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>3,63; 124,19</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>46,67; 166,69</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>44,45; 147,55</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>42,54; 128,51</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>46,41; 158,87</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>17,12; 102,74</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.313172143752206</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.864911619799708</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.301908452866776</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.503630390622445</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-5.523345121478458</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>0.01502944987071266</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.8300198944457048</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.2413362696076985</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.2483564440086544</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.5013716233813514</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>14.27657544808156</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.811974043663116</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>10.5857268365581</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.64828491645684</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.717345979716745</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>4.73158454383926</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.202212968411764</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.542149548117242</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>3.006840591122813</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>2.003728697972694</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>7.018200604844993</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.572224324858751</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>6.614443030603999</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>6.128115163603241</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.512826832345239</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>7.223895597602666</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>4.652202730290324</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.880045144539061</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.6583914482737887</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.044112793338639</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.9033110615597681</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.8219568717812956</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.9856339166944753</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.5324188169935102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>4.164413539624825</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>1.046618690972785</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.27769043611078</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>3.67187135188601</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.84208475072794</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>4.135859231938193</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>1.722546081082158</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.414092890068293</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.1080455035422985</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5455105416786882</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.4313565741599503</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.4464508629909723</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.4640569178670019</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>0.1762326728373776</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>9.499746136737024</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.823551022724766</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>8.896820628613332</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>8.26822111852259</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>10.40173486197592</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>9.8416555248942</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>7.490308848036912</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.44206803595695</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.353118057395638</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.724948791162008</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>1.456413116925231</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.313555374911321</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>1.58867385521439</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>1.032053241157899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
